--- a/Name_Code_Pairings.xlsx
+++ b/Name_Code_Pairings.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drorl\OneDrive\Documents\KDL Matric Assasin 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drorl\OneDrive\Matric-Assassin-New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B681EA-CCC7-49CD-96F7-FF14F9A86EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B6AF0A-FA0B-4E43-9A50-3B57953F7915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{781A5B8A-E420-430C-9197-36CBF4E3DF3D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Name_Code_Pairings" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
-  <si>
-    <t>Name --&gt; Paired With</t>
-  </si>
-  <si>
-    <t>Unique Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>Leora Joffe --&gt; Amy Moritz</t>
   </si>
@@ -80,9 +74,6 @@
     <t>LD3BIX</t>
   </si>
   <si>
-    <t>Leora Boner --&gt; Josh Bayhack</t>
-  </si>
-  <si>
     <t>H1X9M2</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>MMRF4N</t>
   </si>
   <si>
-    <t>Tyron Lasovsky --&gt; Tali Smith</t>
-  </si>
-  <si>
     <t>DD2ZOV</t>
   </si>
   <si>
@@ -134,15 +122,9 @@
     <t>SGRKSN</t>
   </si>
   <si>
-    <t>Seth Sklar --&gt; Gideon Bloom</t>
-  </si>
-  <si>
     <t>AVZQTV</t>
   </si>
   <si>
-    <t>Gideon Bloom --&gt; Josh Galgut</t>
-  </si>
-  <si>
     <t>QTUVNO</t>
   </si>
   <si>
@@ -272,15 +254,9 @@
     <t>9QGFL4</t>
   </si>
   <si>
-    <t>Rebbeca Jellin --&gt; Levi Sweidan</t>
-  </si>
-  <si>
     <t>6MZSHY</t>
   </si>
   <si>
-    <t>Levi Sweidan --&gt; Sabrina Cohen</t>
-  </si>
-  <si>
     <t>0DE5TC</t>
   </si>
   <si>
@@ -344,9 +320,6 @@
     <t>XLETPI</t>
   </si>
   <si>
-    <t>Levi Raff --&gt; Sage Klug</t>
-  </si>
-  <si>
     <t>VE8T33</t>
   </si>
   <si>
@@ -362,9 +335,6 @@
     <t>EOXN5Q</t>
   </si>
   <si>
-    <t>Zach Karan --&gt; Dakota Trakman</t>
-  </si>
-  <si>
     <t>981HWC</t>
   </si>
   <si>
@@ -677,9 +647,6 @@
     <t>FG85RS</t>
   </si>
   <si>
-    <t>Bailey Lipworth --&gt; Leah Kerr-Phillps</t>
-  </si>
-  <si>
     <t>W92ATY</t>
   </si>
   <si>
@@ -728,9 +695,6 @@
     <t>B5Z3T4</t>
   </si>
   <si>
-    <t>Eden Dworcan --&gt; Adam Gordon</t>
-  </si>
-  <si>
     <t>F7B2X1</t>
   </si>
   <si>
@@ -746,21 +710,12 @@
     <t>PK3DR9</t>
   </si>
   <si>
-    <t>Ben Meltzer --&gt; Ari Symons</t>
-  </si>
-  <si>
     <t>J8GF4D</t>
   </si>
   <si>
-    <t>Ari Symons --&gt; Leora Joffe</t>
-  </si>
-  <si>
     <t>H5NM2X</t>
   </si>
   <si>
-    <t>Leah Kerr-Phillips --&gt; Jayden Sacker</t>
-  </si>
-  <si>
     <t>Cammi Dorfman --&gt; Tayla Smith</t>
   </si>
   <si>
@@ -768,13 +723,82 @@
   </si>
   <si>
     <t>Mia Jacobson --&gt; Lexi Fine</t>
+  </si>
+  <si>
+    <t>Bailey Lipworth --&gt; Leah Kerr-Phillips</t>
+  </si>
+  <si>
+    <t>Gideon Bloom --&gt; Joshua Galgut</t>
+  </si>
+  <si>
+    <t>Rebbeca Jellin --&gt; Mika Sacharowitz</t>
+  </si>
+  <si>
+    <t>Leora Boner --&gt; Tali Smith</t>
+  </si>
+  <si>
+    <t>Tyron Lasovsky --&gt; Josh Bayhack</t>
+  </si>
+  <si>
+    <t>Levi Raff --&gt; Gideon Bloom</t>
+  </si>
+  <si>
+    <t>Seth Sklar --&gt; Sage Klug</t>
+  </si>
+  <si>
+    <t>Eden Dworcan --&gt; Hannah Benson</t>
+  </si>
+  <si>
+    <t>Ben Meltzer --&gt; Tyler Cimring</t>
+  </si>
+  <si>
+    <t>Ari Symons --&gt; Adam Gordon</t>
+  </si>
+  <si>
+    <t>Tyler Cimring --&gt; Jacob Defries</t>
+  </si>
+  <si>
+    <t>X7L9QM</t>
+  </si>
+  <si>
+    <t>Jacob Defries --&gt; Adam Goldberg</t>
+  </si>
+  <si>
+    <t>D3TZV5</t>
+  </si>
+  <si>
+    <t>Hannah Benson --&gt; Ari Symons</t>
+  </si>
+  <si>
+    <t>L81RKU</t>
+  </si>
+  <si>
+    <t>Adam Goldberg --&gt; Leora Joffe</t>
+  </si>
+  <si>
+    <t>3A5GQU</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Mika Sacharowitz --&gt; Sabrina Cohen</t>
+  </si>
+  <si>
+    <t>Zach Karan --&gt; Jayden Sacker</t>
+  </si>
+  <si>
+    <t>Leah Kerr-Phillips --&gt; Dakota Trakman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +929,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1251,8 +1282,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1627,994 +1659,1025 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462C4C7F-7A69-451F-8D7B-A6DF7F0D460A}">
-  <dimension ref="A1:B122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B081117D-15E2-4B25-BF45-D282D088E105}">
+  <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="263" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B53" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B56" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B57" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B58" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B59" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B60" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B61" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B65" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B67" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>241</v>
-      </c>
-      <c r="B83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>168</v>
-      </c>
-      <c r="B86" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>170</v>
-      </c>
-      <c r="B87" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B88" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B89" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>176</v>
-      </c>
-      <c r="B90" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>188</v>
-      </c>
-      <c r="B96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>194</v>
-      </c>
-      <c r="B99" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>196</v>
-      </c>
-      <c r="B100" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B101" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>199</v>
-      </c>
-      <c r="B102" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>201</v>
-      </c>
-      <c r="B103" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>203</v>
-      </c>
-      <c r="B104" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>205</v>
-      </c>
-      <c r="B105" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>207</v>
-      </c>
-      <c r="B106" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>209</v>
-      </c>
-      <c r="B107" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>211</v>
-      </c>
-      <c r="B108" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>213</v>
-      </c>
-      <c r="B109" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>240</v>
-      </c>
-      <c r="B110" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>216</v>
-      </c>
-      <c r="B111" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>218</v>
-      </c>
-      <c r="B112" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>220</v>
-      </c>
-      <c r="B113" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>222</v>
-      </c>
-      <c r="B114" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>224</v>
-      </c>
-      <c r="B115" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>226</v>
-      </c>
-      <c r="B116" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>228</v>
-      </c>
-      <c r="B117" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>230</v>
-      </c>
-      <c r="B118" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>232</v>
-      </c>
-      <c r="B119" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>234</v>
-      </c>
-      <c r="B120" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>236</v>
-      </c>
-      <c r="B121" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>238</v>
-      </c>
-      <c r="B122" t="s">
-        <v>239</v>
+      <c r="B125" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
